--- a/data_handler/config_samples.xlsx
+++ b/data_handler/config_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Documents\vchat\NewChatFiles\Scripts\data_handler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F5512-C151-4B92-9E7A-318C17432F43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDEAB96-C8D6-4B9F-96CA-24AA5B5BD3FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8775" firstSheet="2" activeTab="8" xr2:uid="{9BEBEB1F-F948-47F7-A553-4A6657D1A84C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8775" firstSheet="2" activeTab="4" xr2:uid="{9BEBEB1F-F948-47F7-A553-4A6657D1A84C}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="Calculations" sheetId="12" r:id="rId10"/>
     <sheet name="Time process" sheetId="9" r:id="rId11"/>
     <sheet name="Pivot" sheetId="10" r:id="rId12"/>
+    <sheet name="SQL" sheetId="13" r:id="rId13"/>
+    <sheet name="Write to DB" sheetId="14" r:id="rId14"/>
+    <sheet name="DB connection" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="255">
   <si>
     <t>Target Fields(Columns)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -992,6 +995,86 @@
     <t>words_count_unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义函数，统计英文词频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result index, return findall result according to index (default 0 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL scripts
+-- If no db connection in previous config sheets, it will create a sqlite database in memory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fetch result (Default NO)
+YES - Fetch result, the result is going to be used in the following process
+NO - Don't fetch result from this sql, the data set will remain the same from the previous process</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL\1-OS version-create table.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel file directory/path
+-- If  cell is empty, script will write original combined data to db(from mapping sheet)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write to DB Table Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB System
+--sqlite or mysql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection config text(Engine)
+sqlite --&gt; path of the db file 
+mysql --&gt; format "mysql://username:password@ip:port/schema?charset=utf8mb4"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sqlite3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files\DB Browser for SQLite\test_db.db</t>
+  </si>
+  <si>
+    <t>一般不需要把数据结果写进固定的文件，
+主要用来做SQL语句测试
+MYSQL和SQLITE语法有区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1000,7 +1083,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-4009]General"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,6 +1218,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1223,7 +1326,7 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,6 +1526,35 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1775,15 +1907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2345,7 +2477,7 @@
       </c>
       <c r="C2" s="56">
         <f ca="1">TODAY()</f>
-        <v>44208</v>
+        <v>44218</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>214</v>
@@ -2396,6 +2528,202 @@
       <c r="C2" s="32" t="s">
         <v>209</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520D53EF-A843-417C-B577-14437FA157F2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="78" customWidth="1"/>
+    <col min="2" max="2" width="90.25" style="75" customWidth="1"/>
+    <col min="3" max="3" width="87.125" style="75" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="48" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="76">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C63680A-419E-4656-9183-2EC57F3EF6DA}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="85.125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="52" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="52" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061582AA-5586-4603-8770-F839D0E850E7}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="105.25" style="81" customWidth="1"/>
+    <col min="3" max="3" width="41.875" style="81" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2707,7 +3035,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2798,7 +3126,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -3137,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761F26F5-07F5-4B6F-9648-4E67E5D0FE5F}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -3610,10 +3938,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8483B5E-1B8E-4B50-B60C-FFF978B32E7F}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3621,10 +3949,11 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="5" width="48.875" customWidth="1"/>
+    <col min="5" max="5" width="45.75" style="71" customWidth="1"/>
+    <col min="6" max="6" width="48.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
@@ -3637,11 +3966,14 @@
       <c r="D1" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="65">
         <v>1</v>
       </c>
@@ -3654,7 +3986,8 @@
       <c r="D2" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="67" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3666,10 +3999,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7C0AEB-4480-43DA-A5C5-212150AD9FC0}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -3678,7 +4011,7 @@
     <col min="2" max="3" width="26.75" style="16" customWidth="1"/>
     <col min="4" max="4" width="34.75" style="16" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="16" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="16" customWidth="1"/>
     <col min="8" max="8" width="40.375" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
@@ -3734,12 +4067,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="16" t="s">
         <v>235</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
